--- a/fermentation_insights/TRY_results/spearman_TAL_SA_sugarcane.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_SA_sugarcane.xlsx
@@ -720,166 +720,166 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2289639878559514</v>
+        <v>0.1888846915387662</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03835464941859767</v>
+        <v>-0.06915090060360242</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1712972291889168</v>
+        <v>-0.07993721574886299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6274002376009504</v>
+        <v>0.6408211872847491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006720506882027528</v>
+        <v>0.01718368473473894</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5654301657206628</v>
+        <v>-0.5460900243600975</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02188242352969412</v>
+        <v>-0.02059073836295345</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.001720518882075528</v>
+        <v>-0.004496657986631947</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007356317425269701</v>
+        <v>-0.005086580346321385</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.04247892191568766</v>
+        <v>-0.0293564374257497</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.07458404233616935</v>
+        <v>-0.07452663410653643</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001641030564122256</v>
+        <v>-0.0186935787743151</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08077769911079645</v>
+        <v>0.06774785499141997</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1411358285433142</v>
+        <v>0.1329136836547346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05862551450205801</v>
+        <v>0.05817959271837087</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.02692858771435086</v>
+        <v>-0.02575171900687603</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1018411433645735</v>
+        <v>0.1170086280345121</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08074275497101989</v>
+        <v>0.07770434281737126</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2617757671030684</v>
+        <v>0.2499913359653439</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1165729782919132</v>
+        <v>-0.09716707666830668</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01261771447085788</v>
+        <v>-0.02961506246024984</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0824494497977992</v>
+        <v>0.08969719078876316</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2022775131100524</v>
+        <v>-0.2447152508610034</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02554090216360866</v>
+        <v>-0.02333634934539738</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04195677582710331</v>
+        <v>0.04577768711074844</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.08786732746930988</v>
+        <v>0.05454684218736875</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0157247668990676</v>
+        <v>-0.0002878091512366049</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6187973551894208</v>
+        <v>-0.6346315625262501</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0117625430501722</v>
+        <v>0.002136680546722187</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01382847131388525</v>
+        <v>0.0106185064740259</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1346028104112416</v>
+        <v>0.1266452425809703</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.06593555974223897</v>
+        <v>-0.0501062484249937</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.03489537158148633</v>
+        <v>0.03469482677930712</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0279811359245437</v>
+        <v>0.0367128508514034</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05287854751419006</v>
+        <v>0.06082190728762915</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001984903939615759</v>
+        <v>0.001216420865683463</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.03039976959907839</v>
+        <v>-0.03162799851199405</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.0165250261001044</v>
+        <v>-0.009134628538514154</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.04559624638498554</v>
+        <v>0.05027664910659643</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.02393462373849495</v>
+        <v>-0.02901477205908824</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.04415240060960244</v>
+        <v>0.04183303133212533</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.04584795939183757</v>
+        <v>0.05235889743558974</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.113060228240913</v>
+        <v>0.1040811203244813</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04213917655670623</v>
+        <v>0.04236180144720579</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.03797266389065556</v>
+        <v>0.03994057576230305</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1076159504638019</v>
+        <v>0.09794861579446318</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.05311163644654578</v>
+        <v>0.06320722882891532</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.07751071004284017</v>
+        <v>0.07789941559766239</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.03943215772863091</v>
+        <v>0.03712872451489806</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2106061224244897</v>
+        <v>0.1992691490765963</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.03985158340633362</v>
+        <v>0.04519074076296305</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.01983867135468542</v>
+        <v>0.01967710270841084</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.02624343297373189</v>
+        <v>-0.04261783447133789</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03042434569738279</v>
+        <v>0.009625382501530007</v>
       </c>
     </row>
     <row r="3">
@@ -889,169 +889,169 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2289639878559514</v>
+        <v>0.1888846915387662</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.004903891615566462</v>
+        <v>0.007614750459001836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5114776619106477</v>
+        <v>0.3441366085464342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05349592598370394</v>
+        <v>0.06287852351409405</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05829498517994072</v>
+        <v>-0.0670246840987364</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4999219996879988</v>
+        <v>-0.468812979251917</v>
       </c>
       <c r="I3" t="n">
-        <v>0.320062304249217</v>
+        <v>0.3112819171276685</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04971485485941943</v>
+        <v>0.05388319153276613</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01854525818103273</v>
+        <v>0.01461653846615386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08376647906591626</v>
+        <v>0.06047112188448753</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.07778229512918051</v>
+        <v>-0.07982614330457322</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.03346746186984748</v>
+        <v>-0.02349426997707991</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.01094874779499118</v>
+        <v>-0.008738626954507818</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03651614606458426</v>
+        <v>-0.02424288097152389</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02567645470581882</v>
+        <v>0.02301330805323221</v>
       </c>
       <c r="R3" t="n">
-        <v>0.007831231324925299</v>
+        <v>0.01193159972639891</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1830230040920164</v>
+        <v>-0.2017014148056592</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.03285181140724563</v>
+        <v>-0.03434404137616551</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2229406357625431</v>
+        <v>0.2043581294325177</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01742925371701487</v>
+        <v>0.008031968127872512</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07856124224496898</v>
+        <v>-0.06950706202824811</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001046116184464738</v>
+        <v>-0.004545330181320725</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5411159564638258</v>
+        <v>0.551308029232117</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02112757251029004</v>
+        <v>0.02289954759819039</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.04243639374557498</v>
+        <v>-0.04540597362389449</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3669813399253597</v>
+        <v>-0.3381482005928024</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1332566930267721</v>
+        <v>-0.1154431497725991</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.03668913875655502</v>
+        <v>-0.05233345733382933</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.03540753363013452</v>
+        <v>-0.1587611150444602</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.07298025992103968</v>
+        <v>-0.05399474397897592</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07662030648122592</v>
+        <v>0.06287285949143796</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.02678957915831663</v>
+        <v>-0.03194191976767907</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07622286489145956</v>
+        <v>0.07426676106704427</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01833645734582938</v>
+        <v>0.01564566258265033</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0120123360493442</v>
+        <v>0.003202764811059244</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05576518306073224</v>
+        <v>0.05526914907659631</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03018616874467498</v>
+        <v>-0.01721459685838743</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.05695232380929523</v>
+        <v>0.03790555962223849</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.03259174636698547</v>
+        <v>-0.03262429049716199</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.04271153084612338</v>
+        <v>0.0572122928491714</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.06270869883479534</v>
+        <v>-0.04692690770763083</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.005208404833619335</v>
+        <v>-0.02208316033264133</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001763335053340213</v>
+        <v>-0.01083892335569342</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.07250717002868011</v>
+        <v>0.04796371185484742</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.03313866055464222</v>
+        <v>-0.03976729506918027</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.02164693458773835</v>
+        <v>-0.01629145716582866</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.001533318133272533</v>
+        <v>-0.004743186972747891</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.0385751623006492</v>
+        <v>-0.04855373021492086</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.09815396061584246</v>
+        <v>-0.105065124260497</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.01365903063612254</v>
+        <v>-0.008522338089352358</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.01325688502754011</v>
+        <v>-0.02040728162912652</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01750048600194401</v>
+        <v>0.01316683666734667</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.1671988767955072</v>
+        <v>-0.1606801627206509</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.1221929367717471</v>
+        <v>-0.1188982995931984</v>
       </c>
     </row>
     <row r="4">
@@ -1061,169 +1061,169 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03835464941859767</v>
+        <v>-0.06915090060360242</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.004903891615566462</v>
+        <v>0.007614750459001836</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1918650234600938</v>
+        <v>0.1310366841467366</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1538314953259813</v>
+        <v>-0.1888247872991492</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05166212664850659</v>
+        <v>0.02902149208596834</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1184428737714951</v>
+        <v>-0.1260863283453134</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06117125268501074</v>
+        <v>-0.05927054108216433</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01690585962343849</v>
+        <v>0.01827741710966844</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00670562682250729</v>
+        <v>0.001232932931731727</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06937131748526994</v>
+        <v>0.05394827979311917</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2521842727370909</v>
+        <v>0.2464315457261829</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5841823047292189</v>
+        <v>0.5959312157248629</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03649051396205585</v>
+        <v>0.04094416377665511</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04023328093312373</v>
+        <v>0.03344269377077509</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01995761583046332</v>
+        <v>-0.02012014448057792</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001368293473173893</v>
+        <v>0.01143028572114289</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04476795507182028</v>
+        <v>-0.01516028464113857</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.02330322921291685</v>
+        <v>-0.03594465577862312</v>
       </c>
       <c r="U4" t="n">
-        <v>0.158434809739239</v>
+        <v>0.1726412345649383</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4131619406477626</v>
+        <v>0.325374389497558</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3066134184536738</v>
+        <v>0.4049564038256153</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03811455245820983</v>
+        <v>0.02950869403477614</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01874033096132385</v>
+        <v>-0.01055821823287293</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02150706202824811</v>
+        <v>-0.02336582146328585</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.06873704294817179</v>
+        <v>-0.05559747038988156</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.02013521654086616</v>
+        <v>0.009853383413533654</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0202061608246433</v>
+        <v>0.04536853347413389</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1716123024492098</v>
+        <v>0.1886064824259297</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2397308149232597</v>
+        <v>0.1148345073380294</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02427820911283645</v>
+        <v>0.07962684650738602</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01452025008100032</v>
+        <v>0.01053393013572054</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01794237576950308</v>
+        <v>0.002922155688622754</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03139644558578234</v>
+        <v>0.03206451225804903</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1396053904215617</v>
+        <v>-0.1423029052116208</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.007908799635198541</v>
+        <v>-0.005161076644306577</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01747830991323965</v>
+        <v>0.03152287809151236</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.03933567734270937</v>
+        <v>-0.03980079920319681</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002505130020520082</v>
+        <v>-0.02008616034464138</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02600986403945616</v>
+        <v>-0.03867778671114684</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0005525782103128412</v>
+        <v>0.006230904923619694</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.01901767607070428</v>
+        <v>-0.01825303301213205</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.03821064884259537</v>
+        <v>-0.05250856203424813</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0130127560510242</v>
+        <v>-0.02659546638186553</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.03724834099336397</v>
+        <v>0.01166798267193069</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.05252238608954436</v>
+        <v>-0.05857857031428126</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.0229751959007836</v>
+        <v>-0.01924538898155593</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.03874901899607598</v>
+        <v>-0.04896835587342349</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02092078768315073</v>
+        <v>0.01683251533006132</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.04902845211380846</v>
+        <v>-0.05631977727910912</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.02016660866643467</v>
+        <v>-0.02473910695642783</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.06407257629030516</v>
+        <v>-0.0733877815511262</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.03556660626642506</v>
+        <v>0.03617448069792279</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.01754791019164077</v>
+        <v>0.03506404425617703</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.00312001248004992</v>
+        <v>0.00458315433261733</v>
       </c>
     </row>
     <row r="5">
@@ -1233,169 +1233,169 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1712972291889168</v>
+        <v>-0.07993721574886299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5114776619106477</v>
+        <v>0.3441366085464342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1918650234600938</v>
+        <v>0.1310366841467366</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4054915099660399</v>
+        <v>-0.2781046644186577</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01495724382897532</v>
+        <v>0.01624451297805191</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3027699470797883</v>
+        <v>-0.2713626534506138</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1705032100128401</v>
+        <v>0.1774120696482786</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01066420265681063</v>
+        <v>-0.004933171732686931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07228464113856456</v>
+        <v>0.07062037848151392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02935442141768567</v>
+        <v>0.07584702338809356</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03794002376009504</v>
+        <v>0.03836530546122185</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.05282555530222121</v>
+        <v>-0.05102938811755247</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01584639938559754</v>
+        <v>0.0163811215244861</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.007305533222132889</v>
+        <v>-0.02541322165288661</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0120561122244489</v>
+        <v>-0.0006755547022188089</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01798979995919984</v>
+        <v>-0.000322753291013164</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.147124140496562</v>
+        <v>-0.0792182688730755</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03738149352597411</v>
+        <v>-0.03039218556874227</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1856176064704259</v>
+        <v>0.1598216312865252</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1637001428005712</v>
+        <v>-0.04315322861291445</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2403551054204217</v>
+        <v>0.08299866799467198</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.09533807735230941</v>
+        <v>-0.08675391501566006</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4654139896559586</v>
+        <v>0.4439093276373106</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01663590654362617</v>
+        <v>-0.02377689510758043</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.02296348385393542</v>
+        <v>-0.01509961239844959</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.09356811827247309</v>
+        <v>-0.09851309805239221</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.03929247716990868</v>
+        <v>-0.07768312673250694</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4832607490429962</v>
+        <v>0.3041338245352981</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4812769971079884</v>
+        <v>0.6796509426037705</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05848103392413569</v>
+        <v>-0.04279965919863679</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1029784599138397</v>
+        <v>0.1160805923223693</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.05208596834387338</v>
+        <v>-0.02089246756987028</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02908466033864135</v>
+        <v>0.02342582170328681</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.06166978267913072</v>
+        <v>-0.06067080268321073</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.06257026628106513</v>
+        <v>-0.02486947547790191</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.09894615578462314</v>
+        <v>0.08160608642434569</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.04438414553658215</v>
+        <v>-0.0536062304249217</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.06681194724778899</v>
+        <v>0.0836625106500426</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02552765411061644</v>
+        <v>-0.01648710594842379</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.0160687362749451</v>
+        <v>-0.02409686438745755</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.1042053448213793</v>
+        <v>-0.08882233928935716</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.03311552446209785</v>
+        <v>0.07493165972663891</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.02126946107784431</v>
+        <v>0.03797583190332762</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01003693614774459</v>
+        <v>0.06896561986247945</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.07005397621590487</v>
+        <v>-0.004235824943299773</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.01003405613622455</v>
+        <v>-0.003826671306685227</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.05645868983475934</v>
+        <v>-0.01663869055476222</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.006924219696878788</v>
+        <v>-0.007457885831543326</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.01580281521126084</v>
+        <v>0.007871551486205944</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.007232956931827727</v>
+        <v>0.01119047676190705</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.04056515426061704</v>
+        <v>-0.0009774759099036396</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01312997251989008</v>
+        <v>0.04292753171012684</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.04121142884571538</v>
+        <v>-0.04563791055164221</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.01808484033936136</v>
+        <v>0.005005460021840088</v>
       </c>
     </row>
     <row r="6">
@@ -1405,169 +1405,169 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6274002376009504</v>
+        <v>0.6408211872847491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05349592598370394</v>
+        <v>0.06287852351409405</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1538314953259813</v>
+        <v>-0.1888247872991492</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4054915099660399</v>
+        <v>-0.2781046644186577</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02659105036420146</v>
+        <v>0.02517206868827475</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001933063732254929</v>
+        <v>0.00251626606506426</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03928911715646863</v>
+        <v>-0.0369188676754707</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04266170664682659</v>
+        <v>0.04141658166632667</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01715728462913852</v>
+        <v>-0.02139838959355837</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03607272029088116</v>
+        <v>-0.03529425317701271</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03282166728666915</v>
+        <v>-0.03919052476209905</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03447901791607166</v>
+        <v>0.03429018516074064</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06104952419809679</v>
+        <v>0.05935348541394166</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04472197088788355</v>
+        <v>0.0444498097992392</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0337254149016596</v>
+        <v>-0.0318560954243817</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000386497545990184</v>
+        <v>0.00075312301249205</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06964290257161028</v>
+        <v>0.06740897363589454</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02601725606902427</v>
+        <v>0.02231586526346105</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01945284581138325</v>
+        <v>-0.0245310741242965</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.04093849975399902</v>
+        <v>-0.03727934911739647</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005528854115416462</v>
+        <v>0.000165312661250645</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06194127176508706</v>
+        <v>0.06280124320497282</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.01219310477241909</v>
+        <v>-0.0164251857007428</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.00567813471253885</v>
+        <v>-0.006701210804843219</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03589079956319825</v>
+        <v>0.03851410605642423</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01452409009636038</v>
+        <v>0.02603252013008052</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0254873339493358</v>
+        <v>-0.02263343453373813</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.8486736346945388</v>
+        <v>-0.8594299977199908</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.01523986895947584</v>
+        <v>-0.06824744098976396</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04004070416281665</v>
+        <v>0.0444499057996232</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1111664286657147</v>
+        <v>0.1008218112872452</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.006275545102180409</v>
+        <v>0.008370081480325921</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.01143786975147901</v>
+        <v>-0.009638054552218209</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.02821806487225949</v>
+        <v>0.03445799383197533</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.05109543638174553</v>
+        <v>0.05192891171564686</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03296729986919947</v>
+        <v>-0.03519086076344306</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.003890895563582254</v>
+        <v>0.006084120336481346</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.1142536090144361</v>
+        <v>0.1060045840183361</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.06311468445873783</v>
+        <v>0.06136555746222985</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.02778875115500462</v>
+        <v>0.02672439489757959</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0917997911991648</v>
+        <v>0.09701722006888028</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.009635846543386173</v>
+        <v>0.008903843615374461</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.4427885231540926</v>
+        <v>0.4219503918015672</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.07347254989019956</v>
+        <v>0.06700798003192013</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.08581752727010908</v>
+        <v>0.086374425497702</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.05035210540842163</v>
+        <v>0.04829491317965272</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.05022874491497966</v>
+        <v>0.05219800079200317</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01169467077868312</v>
+        <v>0.009736166944667779</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02231432925731703</v>
+        <v>0.02288274753099013</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.04075821103284413</v>
+        <v>0.04130790923163693</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.03949609398437594</v>
+        <v>0.03962847851391406</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.009911559646238586</v>
+        <v>-0.0113686534746139</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.07241596966387866</v>
+        <v>-0.07351421405685622</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.05264488257953032</v>
+        <v>-0.05225963303853216</v>
       </c>
     </row>
     <row r="7">
@@ -1577,19 +1577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006720506882027528</v>
+        <v>0.01718368473473894</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05829498517994072</v>
+        <v>-0.0670246840987364</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05166212664850659</v>
+        <v>0.02902149208596834</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01495724382897532</v>
+        <v>0.01624451297805191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02659105036420146</v>
+        <v>0.02517206868827475</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1749,19 +1749,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5654301657206628</v>
+        <v>-0.5460900243600975</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4999219996879988</v>
+        <v>-0.468812979251917</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1184428737714951</v>
+        <v>-0.1260863283453134</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3027699470797883</v>
+        <v>-0.2713626534506138</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001933063732254929</v>
+        <v>0.00251626606506426</v>
       </c>
       <c r="G8" t="n">
         <v>0.03705499621998488</v>
@@ -1921,19 +1921,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02188242352969412</v>
+        <v>-0.02059073836295345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.320062304249217</v>
+        <v>0.3112819171276685</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06117125268501074</v>
+        <v>-0.05927054108216433</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1705032100128401</v>
+        <v>0.1774120696482786</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03928911715646863</v>
+        <v>-0.0369188676754707</v>
       </c>
       <c r="G9" t="n">
         <v>-0.03217702470809884</v>
@@ -2093,19 +2093,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001720518882075528</v>
+        <v>-0.004496657986631947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04971485485941943</v>
+        <v>0.05388319153276613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01690585962343849</v>
+        <v>0.01827741710966844</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01066420265681063</v>
+        <v>-0.004933171732686931</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04266170664682659</v>
+        <v>0.04141658166632667</v>
       </c>
       <c r="G10" t="n">
         <v>-0.08072643490573962</v>
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007356317425269701</v>
+        <v>-0.005086580346321385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01854525818103273</v>
+        <v>0.01461653846615386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00670562682250729</v>
+        <v>0.001232932931731727</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07228464113856456</v>
+        <v>0.07062037848151392</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01715728462913852</v>
+        <v>-0.02139838959355837</v>
       </c>
       <c r="G11" t="n">
         <v>0.01661536246144985</v>
@@ -2437,19 +2437,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04247892191568766</v>
+        <v>-0.0293564374257497</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08376647906591626</v>
+        <v>0.06047112188448753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06937131748526994</v>
+        <v>0.05394827979311917</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02935442141768567</v>
+        <v>0.07584702338809356</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03607272029088116</v>
+        <v>-0.03529425317701271</v>
       </c>
       <c r="G12" t="n">
         <v>0.05467836271345086</v>
@@ -2609,19 +2609,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.07458404233616935</v>
+        <v>-0.07452663410653643</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07778229512918051</v>
+        <v>-0.07982614330457322</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2521842727370909</v>
+        <v>0.2464315457261829</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03794002376009504</v>
+        <v>0.03836530546122185</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03282166728666915</v>
+        <v>-0.03919052476209905</v>
       </c>
       <c r="G13" t="n">
         <v>0.05988215952863812</v>
@@ -2781,19 +2781,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001641030564122256</v>
+        <v>-0.0186935787743151</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03346746186984748</v>
+        <v>-0.02349426997707991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5841823047292189</v>
+        <v>0.5959312157248629</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05282555530222121</v>
+        <v>-0.05102938811755247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03447901791607166</v>
+        <v>0.03429018516074064</v>
       </c>
       <c r="G14" t="n">
         <v>0.01465397861591446</v>
@@ -2953,19 +2953,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08077769911079645</v>
+        <v>0.06774785499141997</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01094874779499118</v>
+        <v>-0.008738626954507818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03649051396205585</v>
+        <v>0.04094416377665511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01584639938559754</v>
+        <v>0.0163811215244861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06104952419809679</v>
+        <v>0.05935348541394166</v>
       </c>
       <c r="G15" t="n">
         <v>0.01878218712874851</v>
@@ -3125,19 +3125,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1411358285433142</v>
+        <v>0.1329136836547346</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03651614606458426</v>
+        <v>-0.02424288097152389</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04023328093312373</v>
+        <v>0.03344269377077509</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007305533222132889</v>
+        <v>-0.02541322165288661</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04472197088788355</v>
+        <v>0.0444498097992392</v>
       </c>
       <c r="G16" t="n">
         <v>0.01660278641114564</v>
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05862551450205801</v>
+        <v>0.05817959271837087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02567645470581882</v>
+        <v>0.02301330805323221</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01995761583046332</v>
+        <v>-0.02012014448057792</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0120561122244489</v>
+        <v>-0.0006755547022188089</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0337254149016596</v>
+        <v>-0.0318560954243817</v>
       </c>
       <c r="G17" t="n">
         <v>-0.09399455197820791</v>
@@ -3469,19 +3469,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02692858771435086</v>
+        <v>-0.02575171900687603</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007831231324925299</v>
+        <v>0.01193159972639891</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001368293473173893</v>
+        <v>0.01143028572114289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01798979995919984</v>
+        <v>-0.000322753291013164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000386497545990184</v>
+        <v>0.00075312301249205</v>
       </c>
       <c r="G18" t="n">
         <v>0.02535917343669375</v>
@@ -3641,19 +3641,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1018411433645735</v>
+        <v>0.1170086280345121</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1830230040920164</v>
+        <v>-0.2017014148056592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04476795507182028</v>
+        <v>-0.01516028464113857</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.147124140496562</v>
+        <v>-0.0792182688730755</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06964290257161028</v>
+        <v>0.06740897363589454</v>
       </c>
       <c r="G19" t="n">
         <v>-0.01774595898383594</v>
@@ -3813,19 +3813,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08074275497101989</v>
+        <v>0.07770434281737126</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03285181140724563</v>
+        <v>-0.03434404137616551</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02330322921291685</v>
+        <v>-0.03594465577862312</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03738149352597411</v>
+        <v>-0.03039218556874227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02601725606902427</v>
+        <v>0.02231586526346105</v>
       </c>
       <c r="G20" t="n">
         <v>0.09354536618146472</v>
@@ -3985,19 +3985,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2617757671030684</v>
+        <v>0.2499913359653439</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2229406357625431</v>
+        <v>0.2043581294325177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.158434809739239</v>
+        <v>0.1726412345649383</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1856176064704259</v>
+        <v>0.1598216312865252</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01945284581138325</v>
+        <v>-0.0245310741242965</v>
       </c>
       <c r="G21" t="n">
         <v>-0.0263686174744699</v>
@@ -4157,19 +4157,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1165729782919132</v>
+        <v>-0.09716707666830668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01742925371701487</v>
+        <v>0.008031968127872512</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4131619406477626</v>
+        <v>0.325374389497558</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1637001428005712</v>
+        <v>-0.04315322861291445</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.04093849975399902</v>
+        <v>-0.03727934911739647</v>
       </c>
       <c r="G22" t="n">
         <v>0.08190368761475046</v>
@@ -4329,19 +4329,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01261771447085788</v>
+        <v>-0.02961506246024984</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07856124224496898</v>
+        <v>-0.06950706202824811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3066134184536738</v>
+        <v>0.4049564038256153</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2403551054204217</v>
+        <v>0.08299866799467198</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005528854115416462</v>
+        <v>0.000165312661250645</v>
       </c>
       <c r="G23" t="n">
         <v>-0.04381716726866908</v>
@@ -4501,19 +4501,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0824494497977992</v>
+        <v>0.08969719078876316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001046116184464738</v>
+        <v>-0.004545330181320725</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03811455245820983</v>
+        <v>0.02950869403477614</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09533807735230941</v>
+        <v>-0.08675391501566006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06194127176508706</v>
+        <v>0.06280124320497282</v>
       </c>
       <c r="G24" t="n">
         <v>-0.04912963651854607</v>
@@ -4673,19 +4673,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.2022775131100524</v>
+        <v>-0.2447152508610034</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5411159564638258</v>
+        <v>0.551308029232117</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01874033096132385</v>
+        <v>-0.01055821823287293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4654139896559586</v>
+        <v>0.4439093276373106</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01219310477241909</v>
+        <v>-0.0164251857007428</v>
       </c>
       <c r="G25" t="n">
         <v>-0.0280311521246085</v>
@@ -4845,19 +4845,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02554090216360866</v>
+        <v>-0.02333634934539738</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02112757251029004</v>
+        <v>0.02289954759819039</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02150706202824811</v>
+        <v>-0.02336582146328585</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01663590654362617</v>
+        <v>-0.02377689510758043</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.00567813471253885</v>
+        <v>-0.006701210804843219</v>
       </c>
       <c r="G26" t="n">
         <v>0.07732821331285325</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04195677582710331</v>
+        <v>0.04577768711074844</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04243639374557498</v>
+        <v>-0.04540597362389449</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06873704294817179</v>
+        <v>-0.05559747038988156</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.02296348385393542</v>
+        <v>-0.01509961239844959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03589079956319825</v>
+        <v>0.03851410605642423</v>
       </c>
       <c r="G27" t="n">
         <v>0.08376542306169224</v>
@@ -5189,19 +5189,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08786732746930988</v>
+        <v>0.05454684218736875</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3669813399253597</v>
+        <v>-0.3381482005928024</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02013521654086616</v>
+        <v>0.009853383413533654</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.09356811827247309</v>
+        <v>-0.09851309805239221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01452409009636038</v>
+        <v>0.02603252013008052</v>
       </c>
       <c r="G28" t="n">
         <v>-0.007112668450673803</v>
@@ -5361,19 +5361,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0157247668990676</v>
+        <v>-0.0002878091512366049</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1332566930267721</v>
+        <v>-0.1154431497725991</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0202061608246433</v>
+        <v>0.04536853347413389</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03929247716990868</v>
+        <v>-0.07768312673250694</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0254873339493358</v>
+        <v>-0.02263343453373813</v>
       </c>
       <c r="G29" t="n">
         <v>0.04042518570074281</v>
@@ -5533,19 +5533,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.6187973551894208</v>
+        <v>-0.6346315625262501</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.03668913875655502</v>
+        <v>-0.05233345733382933</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1716123024492098</v>
+        <v>0.1886064824259297</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4832607490429962</v>
+        <v>0.3041338245352981</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.8486736346945388</v>
+        <v>-0.8594299977199908</v>
       </c>
       <c r="G30" t="n">
         <v>-0.009506246024984099</v>
@@ -5705,19 +5705,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0117625430501722</v>
+        <v>0.002136680546722187</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03540753363013452</v>
+        <v>-0.1587611150444602</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2397308149232597</v>
+        <v>0.1148345073380294</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4812769971079884</v>
+        <v>0.6796509426037705</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01523986895947584</v>
+        <v>-0.06824744098976396</v>
       </c>
       <c r="G31" t="n">
         <v>0.0156122544490178</v>
@@ -5877,19 +5877,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01382847131388525</v>
+        <v>0.0106185064740259</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.07298025992103968</v>
+        <v>-0.05399474397897592</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02427820911283645</v>
+        <v>0.07962684650738602</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05848103392413569</v>
+        <v>-0.04279965919863679</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04004070416281665</v>
+        <v>0.0444499057996232</v>
       </c>
       <c r="G32" t="n">
         <v>-0.01167652670610682</v>
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1346028104112416</v>
+        <v>0.1266452425809703</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07662030648122592</v>
+        <v>0.06287285949143796</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01452025008100032</v>
+        <v>0.01053393013572054</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1029784599138397</v>
+        <v>0.1160805923223693</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1111664286657147</v>
+        <v>0.1008218112872452</v>
       </c>
       <c r="G33" t="n">
         <v>-0.01283966735866944</v>
@@ -6221,19 +6221,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.06593555974223897</v>
+        <v>-0.0501062484249937</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02678957915831663</v>
+        <v>-0.03194191976767907</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01794237576950308</v>
+        <v>0.002922155688622754</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.05208596834387338</v>
+        <v>-0.02089246756987028</v>
       </c>
       <c r="F34" t="n">
-        <v>0.006275545102180409</v>
+        <v>0.008370081480325921</v>
       </c>
       <c r="G34" t="n">
         <v>-0.007826431305725223</v>
@@ -6393,19 +6393,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03489537158148633</v>
+        <v>0.03469482677930712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07622286489145956</v>
+        <v>0.07426676106704427</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03139644558578234</v>
+        <v>0.03206451225804903</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02908466033864135</v>
+        <v>0.02342582170328681</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01143786975147901</v>
+        <v>-0.009638054552218209</v>
       </c>
       <c r="G35" t="n">
         <v>0.02155976623906496</v>
@@ -6565,19 +6565,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0279811359245437</v>
+        <v>0.0367128508514034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01833645734582938</v>
+        <v>0.01564566258265033</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1396053904215617</v>
+        <v>-0.1423029052116208</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.06166978267913072</v>
+        <v>-0.06067080268321073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02821806487225949</v>
+        <v>0.03445799383197533</v>
       </c>
       <c r="G36" t="n">
         <v>-0.008179808719234877</v>
@@ -6737,19 +6737,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05287854751419006</v>
+        <v>0.06082190728762915</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0120123360493442</v>
+        <v>0.003202764811059244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.007908799635198541</v>
+        <v>-0.005161076644306577</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.06257026628106513</v>
+        <v>-0.02486947547790191</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05109543638174553</v>
+        <v>0.05192891171564686</v>
       </c>
       <c r="G37" t="n">
         <v>-0.0004564818259273037</v>
@@ -6909,19 +6909,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001984903939615759</v>
+        <v>0.001216420865683463</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05576518306073224</v>
+        <v>0.05526914907659631</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01747830991323965</v>
+        <v>0.03152287809151236</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09894615578462314</v>
+        <v>0.08160608642434569</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03296729986919947</v>
+        <v>-0.03519086076344306</v>
       </c>
       <c r="G38" t="n">
         <v>0.09809261637046549</v>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.03039976959907839</v>
+        <v>-0.03162799851199405</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.03018616874467498</v>
+        <v>-0.01721459685838743</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03933567734270937</v>
+        <v>-0.03980079920319681</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.04438414553658215</v>
+        <v>-0.0536062304249217</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003890895563582254</v>
+        <v>0.006084120336481346</v>
       </c>
       <c r="G39" t="n">
         <v>-0.01567964671858688</v>
@@ -7253,19 +7253,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.0165250261001044</v>
+        <v>-0.009134628538514154</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05695232380929523</v>
+        <v>0.03790555962223849</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002505130020520082</v>
+        <v>-0.02008616034464138</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06681194724778899</v>
+        <v>0.0836625106500426</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1142536090144361</v>
+        <v>0.1060045840183361</v>
       </c>
       <c r="G40" t="n">
         <v>-0.01402968811875248</v>
@@ -7425,19 +7425,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04559624638498554</v>
+        <v>0.05027664910659643</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.03259174636698547</v>
+        <v>-0.03262429049716199</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.02600986403945616</v>
+        <v>-0.03867778671114684</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.02552765411061644</v>
+        <v>-0.01648710594842379</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06311468445873783</v>
+        <v>0.06136555746222985</v>
       </c>
       <c r="G41" t="n">
         <v>-0.006866619466477866</v>
@@ -7597,19 +7597,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02393462373849495</v>
+        <v>-0.02901477205908824</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04271153084612338</v>
+        <v>0.0572122928491714</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005525782103128412</v>
+        <v>0.006230904923619694</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0160687362749451</v>
+        <v>-0.02409686438745755</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02778875115500462</v>
+        <v>0.02672439489757959</v>
       </c>
       <c r="G42" t="n">
         <v>0.03278355513422054</v>
@@ -7769,19 +7769,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04415240060960244</v>
+        <v>0.04183303133212533</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.06270869883479534</v>
+        <v>-0.04692690770763083</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01901767607070428</v>
+        <v>-0.01825303301213205</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1042053448213793</v>
+        <v>-0.08882233928935716</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0917997911991648</v>
+        <v>0.09701722006888028</v>
       </c>
       <c r="G43" t="n">
         <v>-0.0297185508742035</v>
@@ -7941,19 +7941,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04584795939183757</v>
+        <v>0.05235889743558974</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.005208404833619335</v>
+        <v>-0.02208316033264133</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03821064884259537</v>
+        <v>-0.05250856203424813</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03311552446209785</v>
+        <v>0.07493165972663891</v>
       </c>
       <c r="F44" t="n">
-        <v>0.009635846543386173</v>
+        <v>0.008903843615374461</v>
       </c>
       <c r="G44" t="n">
         <v>-0.03064581858327433</v>
@@ -8113,19 +8113,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.113060228240913</v>
+        <v>0.1040811203244813</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001763335053340213</v>
+        <v>-0.01083892335569342</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0130127560510242</v>
+        <v>-0.02659546638186553</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02126946107784431</v>
+        <v>0.03797583190332762</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4427885231540926</v>
+        <v>0.4219503918015672</v>
       </c>
       <c r="G45" t="n">
         <v>0.04851072204288817</v>
@@ -8285,19 +8285,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04213917655670623</v>
+        <v>0.04236180144720579</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07250717002868011</v>
+        <v>0.04796371185484742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03724834099336397</v>
+        <v>0.01166798267193069</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01003693614774459</v>
+        <v>0.06896561986247945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07347254989019956</v>
+        <v>0.06700798003192013</v>
       </c>
       <c r="G46" t="n">
         <v>0.04260084240336962</v>
@@ -8457,19 +8457,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.03797266389065556</v>
+        <v>0.03994057576230305</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.03313866055464222</v>
+        <v>-0.03976729506918027</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.05252238608954436</v>
+        <v>-0.05857857031428126</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.07005397621590487</v>
+        <v>-0.004235824943299773</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08581752727010908</v>
+        <v>0.086374425497702</v>
       </c>
       <c r="G47" t="n">
         <v>0.02226181704726819</v>
@@ -8629,19 +8629,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1076159504638019</v>
+        <v>0.09794861579446318</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.02164693458773835</v>
+        <v>-0.01629145716582866</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0229751959007836</v>
+        <v>-0.01924538898155593</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.01003405613622455</v>
+        <v>-0.003826671306685227</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05035210540842163</v>
+        <v>0.04829491317965272</v>
       </c>
       <c r="G48" t="n">
         <v>0.00579247116988468</v>
@@ -8801,19 +8801,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05311163644654578</v>
+        <v>0.06320722882891532</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.001533318133272533</v>
+        <v>-0.004743186972747891</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03874901899607598</v>
+        <v>-0.04896835587342349</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.05645868983475934</v>
+        <v>-0.01663869055476222</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05022874491497966</v>
+        <v>0.05219800079200317</v>
       </c>
       <c r="G49" t="n">
         <v>0.02952760611042444</v>
@@ -8973,19 +8973,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07751071004284017</v>
+        <v>0.07789941559766239</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0385751623006492</v>
+        <v>-0.04855373021492086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02092078768315073</v>
+        <v>0.01683251533006132</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.006924219696878788</v>
+        <v>-0.007457885831543326</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01169467077868312</v>
+        <v>0.009736166944667779</v>
       </c>
       <c r="G50" t="n">
         <v>0.06242232968931876</v>
@@ -9145,19 +9145,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03943215772863091</v>
+        <v>0.03712872451489806</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.09815396061584246</v>
+        <v>-0.105065124260497</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.04902845211380846</v>
+        <v>-0.05631977727910912</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01580281521126084</v>
+        <v>0.007871551486205944</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02231432925731703</v>
+        <v>0.02288274753099013</v>
       </c>
       <c r="G51" t="n">
         <v>0.04717286069144277</v>
@@ -9317,19 +9317,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2106061224244897</v>
+        <v>0.1992691490765963</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01365903063612254</v>
+        <v>-0.008522338089352358</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02016660866643467</v>
+        <v>-0.02473910695642783</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.007232956931827727</v>
+        <v>0.01119047676190705</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04075821103284413</v>
+        <v>0.04130790923163693</v>
       </c>
       <c r="G52" t="n">
         <v>0.0510559802239209</v>
@@ -9489,19 +9489,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03985158340633362</v>
+        <v>0.04519074076296305</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01325688502754011</v>
+        <v>-0.02040728162912652</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.06407257629030516</v>
+        <v>-0.0733877815511262</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.04056515426061704</v>
+        <v>-0.0009774759099036396</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03949609398437594</v>
+        <v>0.03962847851391406</v>
       </c>
       <c r="G53" t="n">
         <v>0.0291688526754107</v>
@@ -9661,19 +9661,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01983867135468542</v>
+        <v>0.01967710270841084</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01750048600194401</v>
+        <v>0.01316683666734667</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03556660626642506</v>
+        <v>0.03617448069792279</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01312997251989008</v>
+        <v>0.04292753171012684</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.009911559646238586</v>
+        <v>-0.0113686534746139</v>
       </c>
       <c r="G54" t="n">
         <v>0.03756149424597698</v>
@@ -9833,19 +9833,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.02624343297373189</v>
+        <v>-0.04261783447133789</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1671988767955072</v>
+        <v>-0.1606801627206509</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01754791019164077</v>
+        <v>0.03506404425617703</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04121142884571538</v>
+        <v>-0.04563791055164221</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.07241596966387866</v>
+        <v>-0.07351421405685622</v>
       </c>
       <c r="G55" t="n">
         <v>0.005702614810459242</v>
@@ -10005,19 +10005,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03042434569738279</v>
+        <v>0.009625382501530007</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1221929367717471</v>
+        <v>-0.1188982995931984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00312001248004992</v>
+        <v>0.00458315433261733</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.01808484033936136</v>
+        <v>0.005005460021840088</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.05264488257953032</v>
+        <v>-0.05225963303853216</v>
       </c>
       <c r="G56" t="n">
         <v>0.02608589634358537</v>
